--- a/biology/Microbiologie/Collozoidae/Collozoidae.xlsx
+++ b/biology/Microbiologie/Collozoidae/Collozoidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Collozoidae sont une famille de protistes radiolaires marins de l’ordre des Spumellaria.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles et des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l'IRMNG  (22 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon l'IRMNG  (22 mars 2021) :
 Acrosphaera Haeckel, 1881
 Buccinosphaera Haeckel, 1887
 Choenicosphaera Haeckel, 1887
@@ -535,7 +549,7 @@
 Sphaerozoon Hensen, 1887 synonyme de Sphaerozoum Meyen, 1834
 et :
 Coronosphaera Haeckel, 1887 (statut taxinomique incertain nécessitant d’être évalué)
-Selon le World Register of Marine Species                               (22 mars 2021)[2] :
+Selon le World Register of Marine Species                               (22 mars 2021) :
 sous-famille des Collosphaeridae J. Müller, 1858
 genre Acrosphaera
 genre Buccinosphaera
